--- a/upload/upload_in.xlsx
+++ b/upload/upload_in.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
   <si>
     <t>编号</t>
   </si>
@@ -61,6 +61,12 @@
     <t>北京市丰台区大井东里</t>
   </si>
   <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
     <t>极好</t>
   </si>
   <si>
@@ -101,6 +107,9 @@
   </si>
   <si>
     <t>测试1</t>
+  </si>
+  <si>
+    <t>0.16</t>
   </si>
 </sst>
 </file>
@@ -516,23 +525,23 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2">
-        <v>0.1500000059604645</v>
+      <c r="F2" t="s">
+        <v>15</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="H2">
-        <v>0.8999999761581421</v>
+      <c r="H2" t="s">
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -540,31 +549,31 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3">
-        <v>0.1500000059604645</v>
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3">
-        <v>0.8999999761581421</v>
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -572,34 +581,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4">
-        <v>0.1500000059604645</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4">
-        <v>0.8999999761581421</v>
+      <c r="H4" t="s">
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -618,23 +627,23 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5">
-        <v>0.1500000059604645</v>
+      <c r="F5" t="s">
+        <v>15</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
       </c>
-      <c r="H5">
-        <v>0.8999999761581421</v>
+      <c r="H5" t="s">
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -642,31 +651,31 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6">
-        <v>0.1500000059604645</v>
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6">
-        <v>0.8999999761581421</v>
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -674,34 +683,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7">
-        <v>0.1500000059604645</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7">
-        <v>0.8999999761581421</v>
+      <c r="H7" t="s">
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/upload/upload_in.xlsx
+++ b/upload/upload_in.xlsx
@@ -20,36 +20,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t xml:space="preserve">编号</t>
   </si>
   <si>
-    <t xml:space="preserve">名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">联系人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">电话</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">税率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">含税</t>
-  </si>
-  <si>
-    <t xml:space="preserve">优惠折扣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">信用评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地区</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">商品</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ID</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">规格型号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">品牌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">材质</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生产厂家</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出售价格</t>
+  </si>
+  <si>
+    <t xml:space="preserve">库存下限</t>
   </si>
   <si>
     <t xml:space="preserve">停用</t>
@@ -58,28 +75,25 @@
     <t xml:space="preserve">备注</t>
   </si>
   <si>
-    <t xml:space="preserve">北京南开戈德信息技术有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">施总</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13566886652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">北京海淀区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">无税</t>
-  </si>
-  <si>
-    <t xml:space="preserve">极好</t>
-  </si>
-  <si>
-    <t xml:space="preserve">北京</t>
+    <t xml:space="preserve">3_102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wer123-tw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">支</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天工</t>
+  </si>
+  <si>
+    <t xml:space="preserve">铬钢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成都测量量具公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">否</t>
@@ -92,7 +106,7 @@
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">测试</t>
+      <t xml:space="preserve">导入测试 </t>
     </r>
     <r>
       <rPr>
@@ -102,23 +116,23 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1</t>
+      <t xml:space="preserve">2</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">北京易瑞盈商贸有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">周华农</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13925668956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">北京市丰台区大井东里</t>
-  </si>
-  <si>
-    <t xml:space="preserve">第一条记录</t>
+    <t xml:space="preserve">ZTW-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上工</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合金钢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上海天工测量工具公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
   </si>
 </sst>
 </file>
@@ -128,7 +142,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -156,6 +170,14 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -207,21 +229,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -241,140 +267,141 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1048576"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="9.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="9.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="9.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="4" t="n">
+        <v>161</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="H3" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="J3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>26</v>
-      </c>
     </row>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/upload/upload_in.xlsx
+++ b/upload/upload_in.xlsx
@@ -20,53 +20,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t xml:space="preserve">编号</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">商品</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ID</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">规格型号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">单位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">品牌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">材质</t>
-  </si>
-  <si>
-    <t xml:space="preserve">生产厂家</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出售价格</t>
-  </si>
-  <si>
-    <t xml:space="preserve">库存下限</t>
+    <t xml:space="preserve">名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">联系人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">电话</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">税率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">含税</t>
+  </si>
+  <si>
+    <t xml:space="preserve">优惠折扣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">信用评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地区</t>
   </si>
   <si>
     <t xml:space="preserve">停用</t>
@@ -75,25 +58,28 @@
     <t xml:space="preserve">备注</t>
   </si>
   <si>
-    <t xml:space="preserve">3_102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wer123-tw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">支</t>
-  </si>
-  <si>
-    <t xml:space="preserve">天工</t>
-  </si>
-  <si>
-    <t xml:space="preserve">铬钢</t>
-  </si>
-  <si>
-    <t xml:space="preserve">成都测量量具公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
+    <t xml:space="preserve">北京南开戈德信息技术有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">施总</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13566886652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">北京海淀区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无税</t>
+  </si>
+  <si>
+    <t xml:space="preserve">极好</t>
+  </si>
+  <si>
+    <t xml:space="preserve">北京</t>
   </si>
   <si>
     <t xml:space="preserve">否</t>
@@ -106,7 +92,7 @@
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">导入测试 </t>
+      <t xml:space="preserve">测试</t>
     </r>
     <r>
       <rPr>
@@ -116,23 +102,23 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2</t>
+      <t xml:space="preserve">1</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ZTW-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上工</t>
-  </si>
-  <si>
-    <t xml:space="preserve">合金钢</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上海天工测量工具公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
+    <t xml:space="preserve">北京易瑞盈商贸有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">周华农</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13925668956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">北京市丰台区大井东里</t>
+  </si>
+  <si>
+    <t xml:space="preserve">第一条记录</t>
   </si>
 </sst>
 </file>
@@ -142,7 +128,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -170,14 +156,6 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -229,25 +207,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -267,141 +241,140 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="9.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="9.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="9.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>110</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="E2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="G2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>99</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="4" t="s">
+        <v>0.93</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
-        <v>161</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>104</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>19</v>
+      <c r="L3" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/upload/upload_in.xlsx
+++ b/upload/upload_in.xlsx
@@ -20,21 +20,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="82">
   <si>
     <t xml:space="preserve">编号</t>
   </si>
   <si>
-    <t xml:space="preserve">名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">联系人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">手机</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地址</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">商品</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">id</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">规格型号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">单位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">品牌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">材质</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生产厂家</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出售价格</t>
+  </si>
+  <si>
+    <t xml:space="preserve">库存下限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">库位</t>
   </si>
   <si>
     <t xml:space="preserve">停用</t>
@@ -43,52 +78,628 @@
     <t xml:space="preserve">备注</t>
   </si>
   <si>
-    <t xml:space="preserve">成都双宏贸易有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">李浩东</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13855667759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">成都市青羊区</t>
+    <t xml:space="preserve">3_102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1/16-12UN123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成都</t>
+  </si>
+  <si>
+    <t xml:space="preserve">304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成都测量有限公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-01</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">否</t>
   </si>
   <si>
-    <t xml:space="preserve">合并后第一家</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上海玉德进出口有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">刘记名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13956235569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上海浦东新区</t>
-  </si>
-  <si>
-    <t xml:space="preserve">第二家</t>
-  </si>
-  <si>
-    <t xml:space="preserve">广东刘记食品有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">刘德崇</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13558698853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">广东省广州市</t>
-  </si>
-  <si>
-    <t xml:space="preserve">第一家导入测试</t>
+    <t xml:space="preserve">第一条记录测试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-02</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">23UN3232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">支</t>
+  </si>
+  <si>
+    <t xml:space="preserve">哈尔滨测量量具公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-03</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">第一次添加测试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">btw45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天工</t>
+  </si>
+  <si>
+    <t xml:space="preserve">铬钢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成都测量量具公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-04</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-05</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-06</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">dfasas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-07</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">test-989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">锰钢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成都工具</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-08</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">测试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tet123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上工</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上海测量测具公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-02</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">wer123</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-03</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">122</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-04</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-05</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">wer123-tr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-06</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">是</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-07</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">wer123-tw</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-08</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-02</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">导入测试</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-03</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">导入测试 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ZTW-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合金钢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上海天工测量工具公司</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-04</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">123</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-05</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-06</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -98,7 +709,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -126,6 +737,14 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -177,21 +796,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -211,113 +834,857 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="9.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="9.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.44"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
+        <v>106</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="H3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
+        <v>107</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
+        <v>158</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
+        <v>108</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="I6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
+        <v>101</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
+        <v>115</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>22</v>
+      <c r="J8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
+        <v>160</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
+        <v>105</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
+        <v>112</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="n">
+        <v>109</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="n">
+        <v>159</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="n">
+        <v>102</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="n">
+        <v>111</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="n">
+        <v>104</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="n">
+        <v>103</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="n">
+        <v>110</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="n">
+        <v>162</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="n">
+        <v>164</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="n">
+        <v>161</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="n">
+        <v>165</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="n">
+        <v>163</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/upload/upload_in.xlsx
+++ b/upload/upload_in.xlsx
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
-  <si>
-    <t xml:space="preserve">编号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <r>
       <rPr>
@@ -100,7 +97,7 @@
     <t xml:space="preserve">3_104</t>
   </si>
   <si>
-    <t xml:space="preserve">M002757</t>
+    <t xml:space="preserve">M004761</t>
   </si>
   <si>
     <r>
@@ -134,6 +131,18 @@
     <t xml:space="preserve">2055452A</t>
   </si>
   <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -172,153 +181,57 @@
     <t xml:space="preserve">是</t>
   </si>
   <si>
-    <t xml:space="preserve">M002758</t>
+    <t xml:space="preserve">M004762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">488.17</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-225</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">否</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M002759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M002760</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">区</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-225</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">M002761</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">区</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-226</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">M002762</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">区</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-227</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">M002763</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">区</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-228</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -417,7 +330,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -430,19 +343,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -638,28 +543,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R1048576"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.02734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="12.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="12.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="9.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="7.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="1" width="7.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="7.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="15" style="1" width="7.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="12.09"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -714,383 +618,131 @@
       <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
-        <v>226</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="n">
-        <v>220</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>6050</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>0</v>
+      <c r="I2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="M2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>24</v>
+        <v>123</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
-        <v>227</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>220</v>
-      </c>
-      <c r="E3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>6140</v>
-      </c>
-      <c r="K3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1" t="n">
-        <v>6140</v>
+      <c r="H3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>741.92</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>24</v>
+        <v>234</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
-        <v>228</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>220</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>6190</v>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
-        <v>229</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>220</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>6070</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>4040</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>488.17</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
-        <v>230</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>220</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>6960</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
-        <v>231</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>220</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>6070</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>6070</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>733.46</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
-        <v>232</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>220</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>6170</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1" t="n">
-        <v>6170</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <v>745.55</v>
-      </c>
-      <c r="O8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/upload/upload_in.xlsx
+++ b/upload/upload_in.xlsx
@@ -20,42 +20,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
-  <si>
-    <t xml:space="preserve">编号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">联系人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">手机</t>
-  </si>
-  <si>
-    <t xml:space="preserve">简称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">公司地址</t>
-  </si>
-  <si>
-    <t xml:space="preserve">停用</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="114">
+  <si>
+    <t xml:space="preserve">物料号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">规格</t>
+  </si>
+  <si>
+    <t xml:space="preserve">状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">执行标准</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生产厂家</t>
+  </si>
+  <si>
+    <t xml:space="preserve">炉号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">售价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">入库长度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出库次数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">库存长度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">理论重量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">库位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">区域</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切完</t>
   </si>
   <si>
     <t xml:space="preserve">备注</t>
   </si>
   <si>
-    <t xml:space="preserve">大冶特殊钢股份有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">刘德崇</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13558698853</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 大冶特钢</t>
+    <t xml:space="preserve">L659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150*10</t>
   </si>
   <si>
     <r>
@@ -64,8 +79,9 @@
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">湖北省黄石市西塞山区黄石大道</t>
+      <t xml:space="preserve">固溶时效</t>
     </r>
     <r>
       <rPr>
@@ -75,7 +91,40 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">316</t>
+      <t xml:space="preserve">H1100</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ASTM S564/A564M-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中航上大</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0D40224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A</t>
     </r>
     <r>
       <rPr>
@@ -83,49 +132,9 @@
         <color theme="1"/>
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">号</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">抚顺特殊钢股份有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">刘记名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13956235569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">抚顺特钢</t>
-  </si>
-  <si>
-    <t xml:space="preserve">辽宁省抚顺市望花区鞍山路东段８号</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">西宁特殊钢股份有限公司</t>
-  </si>
-  <si>
-    <t xml:space="preserve">李浩东</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13855667759</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 西宁特钢</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">青海省西宁市柴达木路</t>
+      <t xml:space="preserve">区</t>
     </r>
     <r>
       <rPr>
@@ -135,8 +144,407 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">52</t>
+      <t xml:space="preserve">-224</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">天津</t>
+  </si>
+  <si>
+    <t xml:space="preserve">测试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">174*12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XYGN4935-2022-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大冶特殊钢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2055452A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160*22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XTG-JY-036-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新兴铸管</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19D2971V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-225</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">更新</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">316</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-226</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">L689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">296</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-227</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">L690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">317</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-228</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">L778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">武汉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M001651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219*14</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">固溶时效，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">28-32HRC</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">XTG-JY-C-036-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2MALV21118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M001652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M001654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M001655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M001656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M001657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M001663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">178*15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M001665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M001666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M001667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M001668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M001669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M001670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无缝钢管导入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M001672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M003167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">935</t>
   </si>
 </sst>
 </file>
@@ -152,6 +560,7 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -174,6 +583,7 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -230,15 +640,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -434,22 +844,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:O1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.02734375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="14.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="23.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="1" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="1" width="7.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16382" style="0" width="10.49"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -474,73 +890,987 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>9</v>
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="F9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
+      <c r="L10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
